--- a/TestProject/src/main/webapp/서구예방접종가능한병원.xlsx
+++ b/TestProject/src/main/webapp/서구예방접종가능한병원.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhrd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC932DC-7344-49D0-B30C-84C11148EA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F2C58-6F75-4311-BE23-96F810DAB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="255" windowWidth="21750" windowHeight="13800" xr2:uid="{55B6F845-024C-4C69-B1A3-9CF727AC8EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55B6F845-024C-4C69-B1A3-9CF727AC8EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
   </definedNames>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="556">
   <si>
     <t>종별</t>
   </si>
@@ -1708,6 +1705,9 @@
   </si>
   <si>
     <t>A형 간염,B형 간염,B형 헤모스 인플루엔자,대상포진(띠헤르페스),파상풍/디프테리아/백일해,수두,수막구균,홍역/유행성이하선염(볼거리)/풍진,독감</t>
+  </si>
+  <si>
+    <t>요양병원</t>
   </si>
 </sst>
 </file>
@@ -1854,2396 +1854,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>의료기관명</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>종별</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>슬기로운병원</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>화정아동병원</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>뉴 엔젤병원</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>중앙병원</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>문영래 정형외과병원</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>광주삼성병원</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>시원병원</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>서울휴병원</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>새희망병원</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>소망하나로병원</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>코끼리휴병원</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>태영21병원</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>우리아동병원</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>밝은안과21병원</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>아이퍼스트아동병원</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>미즈피아병원</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>광주동림병원</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>무지개병원</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>우리들병원</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>보라안과병원</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>광주새우리병원</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>시엘병원</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>병원</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>기아자동차부속의원</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>부속의원</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>마더스 요양병원</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>이기람 요양병원</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>미소요양병원</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>정든요양병원</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>서광주청연요양병원</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>상무힐링요양병원</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>서광요양병원</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>효부모사랑요양병원</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>백세요양병원</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>요양병원</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>최고안과의원</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>모던성형외과의원</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>미하이의원</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>서울성모정형외과의원</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>태양의원</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>참편한신경외과의원</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>닥터스피부과의원</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>금호정신건강의학과의원</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>오세인정형외과의원</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>박앤박정신건강의학과의원</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>SD서울의원</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>맨투맨남성의원</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>희망가득마취통증의학과의원</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>광주삼성이비인후과의원</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>삼성 봄 정신건강의학과의원</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>아미의원</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>스카이의원</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>아이퀸성형외과의원</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>서울상무정형외과의원</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>로뎀정신건강의학과의원</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>박상훈내과의원</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>서울삼성내과의원</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>리얼미의원</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>아티스성형외과의원</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>소문난정형외과의원</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>최승호내과의원</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>압구정모비앙의원</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>힐링미드림의원</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>광주스마일안과의원</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>아띠의원</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>서울이비인후과의원</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>숨편한내과의원</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>샤인빔의원</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>광주항외과의원</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>코앤영의원</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>센트럴비뇨의학과의원</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>박인범제통의원</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>탑라인외과의원</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>호호이비인후과의원</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>바른재활의학과의원</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>밝은의원</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>K교토성형외과의원</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>블리비의원</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>광주미의원</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>화정키즈소아청소년과의원</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>더슬림의원</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>쁘띠2.7의원</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>하나가정의학과의원</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>강남바른스케치의원</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>이혜미성형외과의원</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>정상기안과의원</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>강남의원</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>비슈정신건강의학과의원</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>비엘의원</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>상무안과의원</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>CNP차앤박피부과의원</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>더하얀의원</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>서구베스트의원</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>연세피부과의원</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>연세다온재활의학과의원</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>하나로내과의원</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>닥터영의원</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>신데렐라의원</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>쿨맨남성의원</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>디에비뉴의원</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>리뉴의원</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>상쾌한박완내과의원</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>닥터윤마디의원</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>휴나림정신건강의학과의원</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>압구정제이엘의원</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>더블린의원</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>미앤사랑피부과의원</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>소문난내과의원</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>코끼리내과의원</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>엠탑남성의원</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>바른유외과의원</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>피넬정신건강의학과의원</v>
-          </cell>
-          <cell r="B110" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>강남진의원</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>톱스타성형외과의원</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>더코성형외과의원</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>광주주사랑의원</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>웰의원</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>대한정형외과의원</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>목뉴방외과의원</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>V라인S라인프리미엄자인의원</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>드림업성형외과의원</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>맨앤네이처 성형외과의원</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>광주안과의원</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>아델피부과의원</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>센트럴T성형외과의원</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>비비드성형외과의원</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>하나통합의원</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>상쾌한정형외과의원</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>상쾌한내과의원</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>원정신건강의학과의원</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>연세팜스의원</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>모앤미라클의원</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>코웰의원</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>미라클의원</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>가슴뛰는내과의원</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>청담진성형외과의원</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>강남세련성형외과의원</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>빛고을미의원</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>파티마의원</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>참사랑내과의원</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>홍신경외과의원</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>우리연합의원</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>세종성형외과의원</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>우리들내과의원</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>트루맨남성의원</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>메디필비뇨기과의원</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>메디필피부과의원</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>우리튼튼의원</v>
-          </cell>
-          <cell r="B146" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>느낌좋은산부인과의원</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>조안성형외과의원</v>
-          </cell>
-          <cell r="B148" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>이노블성형외과의원</v>
-          </cell>
-          <cell r="B149" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>나라의원</v>
-          </cell>
-          <cell r="B150" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>더블유의원</v>
-          </cell>
-          <cell r="B151" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>예지메디뷰의원</v>
-          </cell>
-          <cell r="B152" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>더리프트의원</v>
-          </cell>
-          <cell r="B153" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>미지예피부과의원</v>
-          </cell>
-          <cell r="B154" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>나용필모피부과의원</v>
-          </cell>
-          <cell r="B155" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>밝은마취통증의학과의원</v>
-          </cell>
-          <cell r="B156" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>박영옥마취통증의학과의원</v>
-          </cell>
-          <cell r="B157" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>더모헤어플란트미지예피부과의원</v>
-          </cell>
-          <cell r="B158" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>예사랑피부과의원</v>
-          </cell>
-          <cell r="B159" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>광주서울하정의원</v>
-          </cell>
-          <cell r="B160" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>최세미산부인과의원</v>
-          </cell>
-          <cell r="B161" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>알파성형외과의원</v>
-          </cell>
-          <cell r="B162" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>멘파워비뇨기과의원</v>
-          </cell>
-          <cell r="B163" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>중앙신경외과의원</v>
-          </cell>
-          <cell r="B164" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>손의주신경과의원</v>
-          </cell>
-          <cell r="B165" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>프렌즈성형외과의원</v>
-          </cell>
-          <cell r="B166" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>본피부과의원</v>
-          </cell>
-          <cell r="B167" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>박동균성형외과의원</v>
-          </cell>
-          <cell r="B168" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>유앤박미래피부과의원</v>
-          </cell>
-          <cell r="B169" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>신세계마취통증의학과의원</v>
-          </cell>
-          <cell r="B170" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>유로진 남성의원</v>
-          </cell>
-          <cell r="B171" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>연세유앤미의원</v>
-          </cell>
-          <cell r="B172" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>코아이비인후과의원</v>
-          </cell>
-          <cell r="B173" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>신세계안과의원</v>
-          </cell>
-          <cell r="B174" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>행복가정의학과의원</v>
-          </cell>
-          <cell r="B175" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>닥터리스의원</v>
-          </cell>
-          <cell r="B176" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>뷰티스 맑은피부과의원</v>
-          </cell>
-          <cell r="B177" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>압구정앤성형외과의원</v>
-          </cell>
-          <cell r="B178" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>애플영상의학과의원</v>
-          </cell>
-          <cell r="B179" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>(재단법인)한국의학연구소광주의원</v>
-          </cell>
-          <cell r="B180" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>화이트피부과의원</v>
-          </cell>
-          <cell r="B181" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>우리성모의원</v>
-          </cell>
-          <cell r="B182" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>정내과의원</v>
-          </cell>
-          <cell r="B183" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184" t="str">
-            <v>yes의원</v>
-          </cell>
-          <cell r="B184" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v>신지호성형외과의원</v>
-          </cell>
-          <cell r="B185" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>에버미의원</v>
-          </cell>
-          <cell r="B186" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>생기가정의학과의원</v>
-          </cell>
-          <cell r="B187" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>영맨비뇨기과의원</v>
-          </cell>
-          <cell r="B188" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v>웰스유외과의원</v>
-          </cell>
-          <cell r="B189" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>이철범이비인후과의원</v>
-          </cell>
-          <cell r="B190" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191" t="str">
-            <v>양승원내과의원</v>
-          </cell>
-          <cell r="B191" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192" t="str">
-            <v>상쾌한이비인후과의원</v>
-          </cell>
-          <cell r="B192" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193" t="str">
-            <v>닥터뷰티의원</v>
-          </cell>
-          <cell r="B193" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>송창훈내과의원</v>
-          </cell>
-          <cell r="B194" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>미플러스성형외과의원</v>
-          </cell>
-          <cell r="B195" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>(사회복지법인)한국혈우재단광주의원</v>
-          </cell>
-          <cell r="B196" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>2030미라인외과의원</v>
-          </cell>
-          <cell r="B197" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>금호소망산부인과의원</v>
-          </cell>
-          <cell r="B198" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>보라여성의원</v>
-          </cell>
-          <cell r="B199" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>아름다운여성의원</v>
-          </cell>
-          <cell r="B200" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>광주미래와희망산부인과의원</v>
-          </cell>
-          <cell r="B201" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202" t="str">
-            <v>동천희망소아과의원</v>
-          </cell>
-          <cell r="B202" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203" t="str">
-            <v>젠틀맨&amp;레이디의원</v>
-          </cell>
-          <cell r="B203" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204" t="str">
-            <v>메디필성형외과의원</v>
-          </cell>
-          <cell r="B204" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205" t="str">
-            <v>신세계정신건강의학과의원</v>
-          </cell>
-          <cell r="B205" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206" t="str">
-            <v>복음연합의원</v>
-          </cell>
-          <cell r="B206" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207" t="str">
-            <v>강문외과의원</v>
-          </cell>
-          <cell r="B207" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208" t="str">
-            <v>아이린의원</v>
-          </cell>
-          <cell r="B208" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209" t="str">
-            <v>필요한정신건강의학과의원</v>
-          </cell>
-          <cell r="B209" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210" t="str">
-            <v>누가의원</v>
-          </cell>
-          <cell r="B210" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211" t="str">
-            <v>풍암안과의원</v>
-          </cell>
-          <cell r="B211" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212" t="str">
-            <v>제일비뇨기과의원</v>
-          </cell>
-          <cell r="B212" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213" t="str">
-            <v>SM미성형외과의원</v>
-          </cell>
-          <cell r="B213" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214" t="str">
-            <v>메디필마취통증의학과의원</v>
-          </cell>
-          <cell r="B214" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215" t="str">
-            <v>정인정신건강의학과의원</v>
-          </cell>
-          <cell r="B215" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216" t="str">
-            <v>우일신경외과의원</v>
-          </cell>
-          <cell r="B216" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217" t="str">
-            <v>소망가정의원</v>
-          </cell>
-          <cell r="B217" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218" t="str">
-            <v>아이안과의원</v>
-          </cell>
-          <cell r="B218" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219" t="str">
-            <v>맑은소리최정섭이비인후과의원</v>
-          </cell>
-          <cell r="B219" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220" t="str">
-            <v>류앤김이비인후과소아과의원</v>
-          </cell>
-          <cell r="B220" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221" t="str">
-            <v>에덴의원</v>
-          </cell>
-          <cell r="B221" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222" t="str">
-            <v>염주정형외과의원</v>
-          </cell>
-          <cell r="B222" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223" t="str">
-            <v>미의원</v>
-          </cell>
-          <cell r="B223" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224" t="str">
-            <v>신성하내과의원</v>
-          </cell>
-          <cell r="B224" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225" t="str">
-            <v>다나마취통증의학과의원</v>
-          </cell>
-          <cell r="B225" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226" t="str">
-            <v>김영곤내과의원</v>
-          </cell>
-          <cell r="B226" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227" t="str">
-            <v>은혜가정의원</v>
-          </cell>
-          <cell r="B227" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228" t="str">
-            <v>김영남내과의원</v>
-          </cell>
-          <cell r="B228" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229" t="str">
-            <v>상무이비인후과의원</v>
-          </cell>
-          <cell r="B229" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230" t="str">
-            <v>우리가정의학과의원</v>
-          </cell>
-          <cell r="B230" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231" t="str">
-            <v>장성강정형외과의원</v>
-          </cell>
-          <cell r="B231" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232" t="str">
-            <v>김성배내과의원</v>
-          </cell>
-          <cell r="B232" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233" t="str">
-            <v>미래이비인후과의원</v>
-          </cell>
-          <cell r="B233" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234" t="str">
-            <v>강경태내과의원</v>
-          </cell>
-          <cell r="B234" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235" t="str">
-            <v>프레메디산부인과의원</v>
-          </cell>
-          <cell r="B235" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236" t="str">
-            <v>메디필서방사선과의원</v>
-          </cell>
-          <cell r="B236" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237" t="str">
-            <v>문현주산부인과의원</v>
-          </cell>
-          <cell r="B237" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238" t="str">
-            <v>수항외과의원</v>
-          </cell>
-          <cell r="B238" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239" t="str">
-            <v>황준화내과의원</v>
-          </cell>
-          <cell r="B239" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240" t="str">
-            <v>이지은소아과의원</v>
-          </cell>
-          <cell r="B240" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241" t="str">
-            <v>한우리산부인과의원</v>
-          </cell>
-          <cell r="B241" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242" t="str">
-            <v>김앤김 내과의원</v>
-          </cell>
-          <cell r="B242" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243" t="str">
-            <v>고광련이비인후과의원</v>
-          </cell>
-          <cell r="B243" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244" t="str">
-            <v>금호가정의학과의원</v>
-          </cell>
-          <cell r="B244" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245" t="str">
-            <v>은피부과의원</v>
-          </cell>
-          <cell r="B245" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246" t="str">
-            <v>명내과방사선과의원</v>
-          </cell>
-          <cell r="B246" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247" t="str">
-            <v>김장훈안과의원</v>
-          </cell>
-          <cell r="B247" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248" t="str">
-            <v>중앙마취과의원</v>
-          </cell>
-          <cell r="B248" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249" t="str">
-            <v>신세계성형외과의원</v>
-          </cell>
-          <cell r="B249" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250" t="str">
-            <v>좋은비뇨기과의원</v>
-          </cell>
-          <cell r="B250" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251" t="str">
-            <v>빛고을가정의원</v>
-          </cell>
-          <cell r="B251" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252" t="str">
-            <v>중앙가정의학과의원</v>
-          </cell>
-          <cell r="B252" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253" t="str">
-            <v>풍암민내과의원</v>
-          </cell>
-          <cell r="B253" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254" t="str">
-            <v>성모안과의원</v>
-          </cell>
-          <cell r="B254" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255" t="str">
-            <v>이내과의원</v>
-          </cell>
-          <cell r="B255" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256" t="str">
-            <v>노진이재활의학과의원</v>
-          </cell>
-          <cell r="B256" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257" t="str">
-            <v>상무우리내과의원</v>
-          </cell>
-          <cell r="B257" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258" t="str">
-            <v>하나이비인후과의원</v>
-          </cell>
-          <cell r="B258" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259" t="str">
-            <v>신세계내과의원</v>
-          </cell>
-          <cell r="B259" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260" t="str">
-            <v>조소아청소년과의원</v>
-          </cell>
-          <cell r="B260" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261" t="str">
-            <v>자모의원</v>
-          </cell>
-          <cell r="B261" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262" t="str">
-            <v>풍암이비인후과의원</v>
-          </cell>
-          <cell r="B262" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263" t="str">
-            <v>문내과의원</v>
-          </cell>
-          <cell r="B263" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264" t="str">
-            <v>밝은마음정신건강의학과의원</v>
-          </cell>
-          <cell r="B264" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265" t="str">
-            <v>선내과의원</v>
-          </cell>
-          <cell r="B265" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266" t="str">
-            <v>장현수이비인후과의원</v>
-          </cell>
-          <cell r="B266" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267" t="str">
-            <v>한독소아과의원</v>
-          </cell>
-          <cell r="B267" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268" t="str">
-            <v>금호이비인후과의원</v>
-          </cell>
-          <cell r="B268" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269" t="str">
-            <v>이정형외과의원</v>
-          </cell>
-          <cell r="B269" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270" t="str">
-            <v>최수미내과의원</v>
-          </cell>
-          <cell r="B270" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271" t="str">
-            <v>고려의원</v>
-          </cell>
-          <cell r="B271" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272" t="str">
-            <v>현대산부인과의원</v>
-          </cell>
-          <cell r="B272" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273" t="str">
-            <v>세브란스마취통증의학과의원</v>
-          </cell>
-          <cell r="B273" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274" t="str">
-            <v>광주정신건강의학과의원</v>
-          </cell>
-          <cell r="B274" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275" t="str">
-            <v>구덕천비뇨기과의원</v>
-          </cell>
-          <cell r="B275" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276" t="str">
-            <v>다나피부과의원</v>
-          </cell>
-          <cell r="B276" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277" t="str">
-            <v>정피부과의원</v>
-          </cell>
-          <cell r="B277" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278" t="str">
-            <v>인성여성의원</v>
-          </cell>
-          <cell r="B278" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279" t="str">
-            <v>민소아청소년과의원</v>
-          </cell>
-          <cell r="B279" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280" t="str">
-            <v>오원주내과의원</v>
-          </cell>
-          <cell r="B280" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281" t="str">
-            <v>메디필내과의원</v>
-          </cell>
-          <cell r="B281" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282" t="str">
-            <v>변동남안과의원</v>
-          </cell>
-          <cell r="B282" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283" t="str">
-            <v>노임규정신건강의학과의원</v>
-          </cell>
-          <cell r="B283" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284" t="str">
-            <v>조정형외과의원</v>
-          </cell>
-          <cell r="B284" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285" t="str">
-            <v>허성희이비인후과의원</v>
-          </cell>
-          <cell r="B285" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286" t="str">
-            <v>양민가정의원</v>
-          </cell>
-          <cell r="B286" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287" t="str">
-            <v>메디필이비인후과의원</v>
-          </cell>
-          <cell r="B287" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288" t="str">
-            <v>(사단법인)한국건강관리협회건강증진의원</v>
-          </cell>
-          <cell r="B288" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289" t="str">
-            <v>서부의원</v>
-          </cell>
-          <cell r="B289" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290" t="str">
-            <v>박영경소아과의원</v>
-          </cell>
-          <cell r="B290" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291" t="str">
-            <v>한마음신경정신과의원</v>
-          </cell>
-          <cell r="B291" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292" t="str">
-            <v>염내과의원</v>
-          </cell>
-          <cell r="B292" t="str">
-            <v>의원</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293" t="str">
-            <v>선한병원</v>
-          </cell>
-          <cell r="B293" t="str">
-            <v>종합병원</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294" t="str">
-            <v>상무병원</v>
-          </cell>
-          <cell r="B294" t="str">
-            <v>종합병원</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295" t="str">
-            <v>광주한국병원</v>
-          </cell>
-          <cell r="B295" t="str">
-            <v>종합병원</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296" t="str">
-            <v>서광병원</v>
-          </cell>
-          <cell r="B296" t="str">
-            <v>종합병원</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297" t="str">
-            <v>미래로21병원</v>
-          </cell>
-          <cell r="B297" t="str">
-            <v>종합병원</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4545,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21EB496-7B9E-4E32-9A90-42BBA1EC1578}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5987,9 +3597,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="str">
-        <f>VLOOKUP(B63,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A63" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -6011,9 +3620,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="str">
-        <f>VLOOKUP(B64,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A64" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>304</v>
@@ -6035,9 +3643,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="str">
-        <f>VLOOKUP(B65,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A65" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>307</v>
@@ -6059,9 +3666,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="str">
-        <f>VLOOKUP(B66,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A66" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>310</v>
@@ -6083,9 +3689,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="str">
-        <f>VLOOKUP(B67,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A67" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>313</v>
@@ -6107,9 +3712,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="str">
-        <f>VLOOKUP(B68,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A68" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>316</v>
@@ -6131,9 +3735,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="str">
-        <f>VLOOKUP(B69,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A69" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>319</v>
@@ -6155,9 +3758,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="str">
-        <f>VLOOKUP(B70,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A70" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>322</v>
@@ -6179,9 +3781,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="str">
-        <f>VLOOKUP(B71,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A71" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>325</v>
@@ -6203,9 +3804,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="str">
-        <f>VLOOKUP(B72,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A72" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>328</v>
@@ -6227,9 +3827,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="str">
-        <f>VLOOKUP(B73,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A73" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>331</v>
@@ -6251,9 +3850,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="str">
-        <f>VLOOKUP(B74,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A74" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>334</v>
@@ -6275,9 +3873,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="str">
-        <f>VLOOKUP(B75,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A75" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>337</v>
@@ -6299,9 +3896,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="str">
-        <f>VLOOKUP(B76,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A76" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>340</v>
@@ -6323,9 +3919,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="str">
-        <f>VLOOKUP(B77,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A77" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>343</v>
@@ -6347,9 +3942,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="str">
-        <f>VLOOKUP(B78,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A78" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>346</v>
@@ -6371,9 +3965,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="str">
-        <f>VLOOKUP(B79,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A79" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>349</v>
@@ -6395,9 +3988,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="str">
-        <f>VLOOKUP(B80,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A80" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>352</v>
@@ -6442,9 +4034,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="str">
-        <f>VLOOKUP(B82,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A82" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>358</v>
@@ -6466,9 +4057,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="str">
-        <f>VLOOKUP(B83,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A83" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>361</v>
@@ -6490,9 +4080,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="str">
-        <f>VLOOKUP(B84,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A84" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>364</v>
@@ -6514,9 +4103,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="str">
-        <f>VLOOKUP(B85,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A85" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>367</v>
@@ -6538,9 +4126,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="str">
-        <f>VLOOKUP(B86,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A86" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>370</v>
@@ -6562,9 +4149,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="e">
-        <f>VLOOKUP(B87,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="A87" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>373</v>
@@ -6586,9 +4172,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="str">
-        <f>VLOOKUP(B88,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A88" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>376</v>
@@ -6610,9 +4195,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="str">
-        <f>VLOOKUP(B89,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A89" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>379</v>
@@ -6634,9 +4218,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="str">
-        <f>VLOOKUP(B90,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A90" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>382</v>
@@ -6658,9 +4241,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="str">
-        <f>VLOOKUP(B91,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A91" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>385</v>
@@ -6682,9 +4264,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="str">
-        <f>VLOOKUP(B92,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A92" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>388</v>
@@ -6706,9 +4287,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="str">
-        <f>VLOOKUP(B93,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A93" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>391</v>
@@ -6730,9 +4310,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="str">
-        <f>VLOOKUP(B94,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A94" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>394</v>
@@ -6754,9 +4333,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="str">
-        <f>VLOOKUP(B95,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A95" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>397</v>
@@ -6778,9 +4356,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="str">
-        <f>VLOOKUP(B96,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>병원</v>
+      <c r="A96" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>400</v>
@@ -6802,9 +4379,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="str">
-        <f>VLOOKUP(B97,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>병원</v>
+      <c r="A97" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>403</v>
@@ -6826,9 +4402,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="str">
-        <f>VLOOKUP(B98,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A98" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>406</v>
@@ -6850,9 +4425,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="str">
-        <f>VLOOKUP(B99,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A99" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>409</v>
@@ -6874,9 +4448,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="str">
-        <f>VLOOKUP(B100,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A100" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>412</v>
@@ -6898,9 +4471,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="str">
-        <f>VLOOKUP(B101,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A101" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>415</v>
@@ -6922,9 +4494,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="str">
-        <f>VLOOKUP(B102,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A102" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>418</v>
@@ -6946,9 +4517,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="str">
-        <f>VLOOKUP(B103,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A103" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>421</v>
@@ -6970,9 +4540,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="str">
-        <f>VLOOKUP(B104,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A104" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>424</v>
@@ -6994,9 +4563,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="str">
-        <f>VLOOKUP(B105,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A105" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>427</v>
@@ -7018,9 +4586,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="str">
-        <f>VLOOKUP(B106,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A106" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>430</v>
@@ -7042,9 +4609,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="str">
-        <f>VLOOKUP(B107,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>병원</v>
+      <c r="A107" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>433</v>
@@ -7066,9 +4632,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="str">
-        <f>VLOOKUP(B108,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A108" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>436</v>
@@ -7090,9 +4655,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="str">
-        <f>VLOOKUP(B109,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>병원</v>
+      <c r="A109" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>439</v>
@@ -7114,9 +4678,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="str">
-        <f>VLOOKUP(B110,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A110" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>442</v>
@@ -7138,9 +4701,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="str">
-        <f>VLOOKUP(B111,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A111" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>445</v>
@@ -7162,9 +4724,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="str">
-        <f>VLOOKUP(B112,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>의원</v>
+      <c r="A112" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>448</v>
@@ -7186,9 +4747,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="str">
-        <f>VLOOKUP(B113,[1]Sheet1!$A:$B,2,FALSE)</f>
-        <v>요양병원</v>
+      <c r="A113" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>451</v>
@@ -7238,8 +4798,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1:F62 E63:F1048576" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>